--- a/Objectifs_Strategiques_MySelfieBooth.xlsx
+++ b/Objectifs_Strategiques_MySelfieBooth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MySelfieBooth\HDD-MySelfieBooth\PHOTOBOOTH-ADMINISTRATIVE\Objectifs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAURE-Stephane\PycharmProjects\AiBooth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A805B4C0-C715-4954-A243-9C10FEF3CCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862DCFE-004D-4C94-81F2-5701E094DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GLOBAL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="129">
   <si>
     <t>Domaine</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Maintenir un taux de conversion devis à contrat de 20 % minimum</t>
   </si>
   <si>
-    <t>Automatiser 100 % des relances via CRM / WhatsApp Business</t>
-  </si>
-  <si>
     <t>Augmenter le panier moyen de 15 % grâce à des upsells ciblés</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Organiser 1 point d'amélioration collective avec l’équipe chaque mois</t>
   </si>
   <si>
-    <t>Créer 1 prototype de machine événementielle par trimestre</t>
-  </si>
-  <si>
     <t>Mettre en place une veille concurrentielle mensuelle</t>
   </si>
   <si>
@@ -405,6 +399,18 @@
   </si>
   <si>
     <t>Définir 1 action d'automatisation concrète par mois et la mettre en œuvre</t>
+  </si>
+  <si>
+    <t>Automatiser 100 % des Leads</t>
+  </si>
+  <si>
+    <t>Stratégie</t>
+  </si>
+  <si>
+    <t>Compatibilité/ Administratif</t>
+  </si>
+  <si>
+    <t>Créer 2 prototype de machine événementielle par ans</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -675,15 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,15 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,15 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,15 +822,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -894,15 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -912,15 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -948,9 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,6 +1001,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,20 +1355,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" style="98" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="23" style="25" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="73" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="80" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="23" style="19" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="61" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="29.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="21" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1383,16 +1380,16 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>114</v>
+      <c r="D1" s="65" t="s">
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1400,790 +1397,790 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="105" t="s">
-        <v>116</v>
+      <c r="D2" s="86" t="s">
+        <v>114</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="52"/>
+        <v>100</v>
+      </c>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="H3" s="83" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="H3" s="102" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="H4" s="84" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="53"/>
-      <c r="H4" s="103" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>117</v>
+      <c r="B5" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="53"/>
-      <c r="H5" s="104"/>
+        <v>101</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>117</v>
+      <c r="B6" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="H6" s="105" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="H6" s="86" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="H7" s="87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="H8" s="85"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="H9" s="88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="H10" s="87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="119"/>
+      <c r="H12" s="89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="123"/>
+      <c r="H13" s="90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="123"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="121"/>
+      <c r="F15" s="123"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="121"/>
+      <c r="F16" s="123"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="126"/>
+      <c r="F17" s="128"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="53"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="H7" s="106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="H8" s="104"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="55"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="55"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="56"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="58"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="58"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="58"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="59"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="H9" s="107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F36" s="60"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="H10" s="106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="8" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="H11" s="104"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="H12" s="108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="105" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="H13" s="109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="59"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="59"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="60"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="61"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="63"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="64"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="65"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="65"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="65"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="66"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="67"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="67"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="68"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="69"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="70"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="70"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="70"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="23" t="s">
+      <c r="E44" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="71"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="72"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="72"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="74"/>
+      <c r="F44" s="62"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2208,303 +2205,303 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
-        <v>90</v>
+      <c r="A2" s="97" t="s">
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101"/>
+      <c r="B8" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="101"/>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="101"/>
+      <c r="B10" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="102"/>
+      <c r="B11" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
-      <c r="B8" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
-      <c r="B10" s="28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
-      <c r="B11" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="B12" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="104"/>
+      <c r="B13" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="105"/>
+      <c r="B17" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
+      <c r="B19" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="107"/>
+      <c r="B20" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="107"/>
+      <c r="B21" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
-      <c r="B14" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
-      <c r="B16" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
+      <c r="B23" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="110"/>
+      <c r="B24" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
+      <c r="B25" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="110"/>
+      <c r="B26" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
-      <c r="B19" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
-      <c r="B20" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="127"/>
-      <c r="B22" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="128" t="s">
+      <c r="B28" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="113"/>
+      <c r="B29" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="113"/>
+      <c r="B30" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="113"/>
+      <c r="B31" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="114"/>
+      <c r="B32" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
-      <c r="B26" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="130"/>
-      <c r="B27" s="38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="131" t="s">
+      <c r="B33" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="92"/>
+      <c r="B34" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
+      <c r="B36" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="93"/>
+      <c r="B37" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
-      <c r="B30" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
-      <c r="B31" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="133"/>
-      <c r="B32" s="41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110" t="s">
+      <c r="B38" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="95"/>
+      <c r="B39" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="95"/>
+      <c r="B40" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="95"/>
+      <c r="B41" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="96"/>
+      <c r="B42" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
-      <c r="B34" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
-      <c r="B36" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="112"/>
-      <c r="B37" s="44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="95"/>
+      <c r="B44" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="95"/>
+      <c r="B45" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="95"/>
+      <c r="B46" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="47" t="s">
+      <c r="A47" s="96"/>
+      <c r="B47" s="41" t="s">
         <v>12</v>
       </c>
     </row>
